--- a/Webshop-gantt-diagram.xlsx
+++ b/Webshop-gantt-diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ADC318-02FA-4C19-845C-E8E710A03C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0076E703-DA6D-4DD3-B224-337A3B447976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -66,15 +66,6 @@
     <t>Mindenki</t>
   </si>
   <si>
-    <t>Teszt Elek</t>
-  </si>
-  <si>
-    <t>Lev Elek</t>
-  </si>
-  <si>
-    <t>Remek Elek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Szállítmányozás </t>
   </si>
   <si>
@@ -82,9 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ha szükséges, e fölött szúrj be új sort! </t>
-  </si>
-  <si>
-    <t>Gyakorlat: hétfő 8:00-9:00</t>
   </si>
   <si>
     <t>8.1.1. Projektterv kitöltése</t>
@@ -237,7 +225,13 @@
     <t>8.4.14. Felhasználói élmény kezelésének tesztelése (TR)</t>
   </si>
   <si>
-    <t>A prototípus kitelepítésének frissítése</t>
+    <t>Varga Zoltán</t>
+  </si>
+  <si>
+    <t>8.4.15. A prototípus kitelepítésének frissítése</t>
+  </si>
+  <si>
+    <t>Gyakorlat: szerda 13:00 - 14:00</t>
   </si>
 </sst>
 </file>
@@ -252,7 +246,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,8 +412,15 @@
       <charset val="238"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +532,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +711,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -771,9 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -869,24 +879,6 @@
     <xf numFmtId="165" fontId="18" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
@@ -896,10 +888,52 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1923,9 +1957,9 @@
   </sheetPr>
   <dimension ref="A1:CE59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="O1" zoomScale="103" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BD32" sqref="BD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1940,181 +1974,181 @@
   <sheetData>
     <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17"/>
-      <c r="B1" s="35" t="s">
-        <v>12</v>
+      <c r="B1" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
-      <c r="I1" s="33"/>
+      <c r="I1" s="30"/>
       <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="34"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" t="s">
+      <c r="AQ1" s="63"/>
+      <c r="AS1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ1" s="72"/>
-      <c r="AS1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY1" s="73"/>
+      <c r="AY1" s="64"/>
       <c r="BB1" t="s">
         <v>8</v>
       </c>
-      <c r="BE1" s="74"/>
+      <c r="BE1" s="65"/>
     </row>
     <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="66" t="s">
+      <c r="B2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="66"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="26"/>
-      <c r="D3" s="66">
-        <v>44459</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="D3" s="71">
+        <v>45189</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="67">
+      <c r="F4" s="72"/>
+      <c r="G4" s="68">
         <f>G5</f>
-        <v>44459</v>
-      </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="67">
+        <v>45187</v>
+      </c>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="68">
         <f>N5</f>
-        <v>44466</v>
-      </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="67">
+        <v>45194</v>
+      </c>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="68">
         <f>U5</f>
-        <v>44473</v>
-      </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="67">
+        <v>45201</v>
+      </c>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="68">
         <f>AB5</f>
-        <v>44480</v>
-      </c>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="67">
+        <v>45208</v>
+      </c>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="68">
         <f>AI5</f>
-        <v>44487</v>
-      </c>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="67">
+        <v>45215</v>
+      </c>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="68">
         <f>AP5</f>
-        <v>44494</v>
-      </c>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="67">
+        <v>45222</v>
+      </c>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="68">
         <f>AW5</f>
-        <v>44501</v>
-      </c>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="67">
+        <v>45229</v>
+      </c>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="70"/>
+      <c r="BD4" s="68">
         <f>BD5</f>
-        <v>44508</v>
-      </c>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="69"/>
-      <c r="BK4" s="67">
+        <v>45236</v>
+      </c>
+      <c r="BE4" s="69"/>
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="70"/>
+      <c r="BK4" s="68">
         <f>BK5</f>
-        <v>44515</v>
-      </c>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="69"/>
-      <c r="BR4" s="67">
+        <v>45243</v>
+      </c>
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="69"/>
+      <c r="BN4" s="69"/>
+      <c r="BO4" s="69"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="70"/>
+      <c r="BR4" s="68">
         <f>BR5</f>
-        <v>44522</v>
-      </c>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="69"/>
-      <c r="BY4" s="67">
+        <v>45250</v>
+      </c>
+      <c r="BS4" s="69"/>
+      <c r="BT4" s="69"/>
+      <c r="BU4" s="69"/>
+      <c r="BV4" s="69"/>
+      <c r="BW4" s="69"/>
+      <c r="BX4" s="70"/>
+      <c r="BY4" s="68">
         <f>BY5</f>
-        <v>44529</v>
-      </c>
-      <c r="BZ4" s="68"/>
-      <c r="CA4" s="68"/>
-      <c r="CB4" s="68"/>
-      <c r="CC4" s="68"/>
-      <c r="CD4" s="68"/>
-      <c r="CE4" s="69"/>
+        <v>45257</v>
+      </c>
+      <c r="BZ4" s="69"/>
+      <c r="CA4" s="69"/>
+      <c r="CB4" s="69"/>
+      <c r="CC4" s="69"/>
+      <c r="CD4" s="69"/>
+      <c r="CE4" s="70"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
@@ -2130,314 +2164,314 @@
       <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
-        <v>44459</v>
+        <v>45187</v>
       </c>
       <c r="H5" s="5">
         <f>G5+1</f>
-        <v>44460</v>
+        <v>45188</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" ref="I5:AV5" si="0">H5+1</f>
-        <v>44461</v>
+        <v>45189</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="0"/>
-        <v>44462</v>
+        <v>45190</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="0"/>
-        <v>44463</v>
+        <v>45191</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="0"/>
-        <v>44464</v>
+        <v>45192</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="0"/>
-        <v>44465</v>
+        <v>45193</v>
       </c>
       <c r="N5" s="6">
         <f>M5+1</f>
-        <v>44466</v>
+        <v>45194</v>
       </c>
       <c r="O5" s="5">
         <f>N5+1</f>
-        <v>44467</v>
+        <v>45195</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" si="0"/>
-        <v>44468</v>
+        <v>45196</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="0"/>
-        <v>44469</v>
+        <v>45197</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" si="0"/>
-        <v>44470</v>
+        <v>45198</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" si="0"/>
-        <v>44471</v>
+        <v>45199</v>
       </c>
       <c r="T5" s="7">
         <f t="shared" si="0"/>
-        <v>44472</v>
+        <v>45200</v>
       </c>
       <c r="U5" s="6">
         <f>T5+1</f>
-        <v>44473</v>
+        <v>45201</v>
       </c>
       <c r="V5" s="5">
         <f>U5+1</f>
-        <v>44474</v>
+        <v>45202</v>
       </c>
       <c r="W5" s="5">
         <f t="shared" si="0"/>
-        <v>44475</v>
+        <v>45203</v>
       </c>
       <c r="X5" s="5">
         <f t="shared" si="0"/>
-        <v>44476</v>
+        <v>45204</v>
       </c>
       <c r="Y5" s="5">
         <f t="shared" si="0"/>
-        <v>44477</v>
+        <v>45205</v>
       </c>
       <c r="Z5" s="5">
         <f t="shared" si="0"/>
-        <v>44478</v>
+        <v>45206</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="0"/>
-        <v>44479</v>
+        <v>45207</v>
       </c>
       <c r="AB5" s="6">
         <f>AA5+1</f>
-        <v>44480</v>
+        <v>45208</v>
       </c>
       <c r="AC5" s="5">
         <f>AB5+1</f>
-        <v>44481</v>
+        <v>45209</v>
       </c>
       <c r="AD5" s="5">
         <f t="shared" si="0"/>
-        <v>44482</v>
+        <v>45210</v>
       </c>
       <c r="AE5" s="5">
         <f t="shared" si="0"/>
-        <v>44483</v>
+        <v>45211</v>
       </c>
       <c r="AF5" s="5">
         <f t="shared" si="0"/>
-        <v>44484</v>
+        <v>45212</v>
       </c>
       <c r="AG5" s="5">
         <f t="shared" si="0"/>
-        <v>44485</v>
+        <v>45213</v>
       </c>
       <c r="AH5" s="7">
         <f t="shared" si="0"/>
-        <v>44486</v>
+        <v>45214</v>
       </c>
       <c r="AI5" s="6">
         <f>AH5+1</f>
-        <v>44487</v>
+        <v>45215</v>
       </c>
       <c r="AJ5" s="5">
         <f>AI5+1</f>
-        <v>44488</v>
+        <v>45216</v>
       </c>
       <c r="AK5" s="5">
         <f t="shared" si="0"/>
-        <v>44489</v>
+        <v>45217</v>
       </c>
       <c r="AL5" s="5">
         <f t="shared" si="0"/>
-        <v>44490</v>
+        <v>45218</v>
       </c>
       <c r="AM5" s="5">
         <f t="shared" si="0"/>
-        <v>44491</v>
+        <v>45219</v>
       </c>
       <c r="AN5" s="5">
         <f t="shared" si="0"/>
-        <v>44492</v>
+        <v>45220</v>
       </c>
       <c r="AO5" s="7">
         <f t="shared" si="0"/>
-        <v>44493</v>
+        <v>45221</v>
       </c>
       <c r="AP5" s="6">
         <f>AO5+1</f>
-        <v>44494</v>
+        <v>45222</v>
       </c>
       <c r="AQ5" s="5">
         <f>AP5+1</f>
-        <v>44495</v>
+        <v>45223</v>
       </c>
       <c r="AR5" s="5">
         <f t="shared" si="0"/>
-        <v>44496</v>
+        <v>45224</v>
       </c>
       <c r="AS5" s="5">
         <f t="shared" si="0"/>
-        <v>44497</v>
+        <v>45225</v>
       </c>
       <c r="AT5" s="5">
         <f t="shared" si="0"/>
-        <v>44498</v>
+        <v>45226</v>
       </c>
       <c r="AU5" s="5">
         <f t="shared" si="0"/>
-        <v>44499</v>
+        <v>45227</v>
       </c>
       <c r="AV5" s="7">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>45228</v>
       </c>
       <c r="AW5" s="6">
         <f>AV5+1</f>
-        <v>44501</v>
+        <v>45229</v>
       </c>
       <c r="AX5" s="5">
         <f>AW5+1</f>
-        <v>44502</v>
+        <v>45230</v>
       </c>
       <c r="AY5" s="5">
         <f t="shared" ref="AY5:BC5" si="1">AX5+1</f>
-        <v>44503</v>
+        <v>45231</v>
       </c>
       <c r="AZ5" s="5">
         <f t="shared" si="1"/>
-        <v>44504</v>
+        <v>45232</v>
       </c>
       <c r="BA5" s="5">
         <f t="shared" si="1"/>
-        <v>44505</v>
+        <v>45233</v>
       </c>
       <c r="BB5" s="5">
         <f t="shared" si="1"/>
-        <v>44506</v>
+        <v>45234</v>
       </c>
       <c r="BC5" s="7">
         <f t="shared" si="1"/>
-        <v>44507</v>
+        <v>45235</v>
       </c>
       <c r="BD5" s="6">
         <f>BC5+1</f>
-        <v>44508</v>
+        <v>45236</v>
       </c>
       <c r="BE5" s="5">
         <f>BD5+1</f>
-        <v>44509</v>
+        <v>45237</v>
       </c>
       <c r="BF5" s="5">
         <f t="shared" ref="BF5:BK5" si="2">BE5+1</f>
-        <v>44510</v>
+        <v>45238</v>
       </c>
       <c r="BG5" s="5">
         <f t="shared" si="2"/>
-        <v>44511</v>
+        <v>45239</v>
       </c>
       <c r="BH5" s="5">
         <f t="shared" si="2"/>
-        <v>44512</v>
+        <v>45240</v>
       </c>
       <c r="BI5" s="5">
         <f t="shared" si="2"/>
-        <v>44513</v>
+        <v>45241</v>
       </c>
       <c r="BJ5" s="7">
         <f t="shared" si="2"/>
-        <v>44514</v>
+        <v>45242</v>
       </c>
       <c r="BK5" s="6">
         <f t="shared" si="2"/>
-        <v>44515</v>
+        <v>45243</v>
       </c>
       <c r="BL5" s="5">
         <f t="shared" ref="BL5" si="3">BK5+1</f>
-        <v>44516</v>
+        <v>45244</v>
       </c>
       <c r="BM5" s="5">
         <f t="shared" ref="BM5" si="4">BL5+1</f>
-        <v>44517</v>
+        <v>45245</v>
       </c>
       <c r="BN5" s="5">
         <f t="shared" ref="BN5" si="5">BM5+1</f>
-        <v>44518</v>
+        <v>45246</v>
       </c>
       <c r="BO5" s="5">
         <f t="shared" ref="BO5" si="6">BN5+1</f>
-        <v>44519</v>
+        <v>45247</v>
       </c>
       <c r="BP5" s="5">
         <f t="shared" ref="BP5" si="7">BO5+1</f>
-        <v>44520</v>
+        <v>45248</v>
       </c>
       <c r="BQ5" s="7">
         <f t="shared" ref="BQ5" si="8">BP5+1</f>
-        <v>44521</v>
+        <v>45249</v>
       </c>
       <c r="BR5" s="6">
         <f t="shared" ref="BR5" si="9">BQ5+1</f>
-        <v>44522</v>
+        <v>45250</v>
       </c>
       <c r="BS5" s="5">
         <f t="shared" ref="BS5" si="10">BR5+1</f>
-        <v>44523</v>
+        <v>45251</v>
       </c>
       <c r="BT5" s="5">
         <f t="shared" ref="BT5" si="11">BS5+1</f>
-        <v>44524</v>
+        <v>45252</v>
       </c>
       <c r="BU5" s="5">
         <f t="shared" ref="BU5" si="12">BT5+1</f>
-        <v>44525</v>
+        <v>45253</v>
       </c>
       <c r="BV5" s="5">
         <f t="shared" ref="BV5" si="13">BU5+1</f>
-        <v>44526</v>
+        <v>45254</v>
       </c>
       <c r="BW5" s="5">
         <f t="shared" ref="BW5" si="14">BV5+1</f>
-        <v>44527</v>
+        <v>45255</v>
       </c>
       <c r="BX5" s="5">
         <f t="shared" ref="BX5" si="15">BW5+1</f>
-        <v>44528</v>
+        <v>45256</v>
       </c>
       <c r="BY5" s="5">
         <f t="shared" ref="BY5" si="16">BX5+1</f>
-        <v>44529</v>
+        <v>45257</v>
       </c>
       <c r="BZ5" s="5">
         <f t="shared" ref="BZ5" si="17">BY5+1</f>
-        <v>44530</v>
+        <v>45258</v>
       </c>
       <c r="CA5" s="5">
         <f t="shared" ref="CA5" si="18">BZ5+1</f>
-        <v>44531</v>
+        <v>45259</v>
       </c>
       <c r="CB5" s="5">
         <f t="shared" ref="CB5" si="19">CA5+1</f>
-        <v>44532</v>
+        <v>45260</v>
       </c>
       <c r="CC5" s="5">
         <f t="shared" ref="CC5" si="20">CB5+1</f>
-        <v>44533</v>
+        <v>45261</v>
       </c>
       <c r="CD5" s="5">
         <f t="shared" ref="CD5" si="21">CC5+1</f>
-        <v>44534</v>
+        <v>45262</v>
       </c>
       <c r="CE5" s="5">
         <f t="shared" ref="CE5" si="22">CD5+1</f>
-        <v>44535</v>
+        <v>45263</v>
       </c>
     </row>
     <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2524,11 +2558,11 @@
     </row>
     <row r="7" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="10"/>
       <c r="F7" s="22"/>
       <c r="G7" s="14"/>
@@ -2611,18 +2645,18 @@
     </row>
     <row r="8" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
-      <c r="B8" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="44">
-        <v>44465</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="D8" s="41">
+        <v>45195</v>
+      </c>
+      <c r="E8" s="41">
         <f>D8+3</f>
-        <v>44468</v>
+        <v>45198</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="14"/>
@@ -2631,14 +2665,14 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="27"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -2705,18 +2739,18 @@
     </row>
     <row r="9" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
-      <c r="B9" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="44">
-        <v>44469</v>
-      </c>
-      <c r="E9" s="44">
+      <c r="B9" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="41">
+        <v>45199</v>
+      </c>
+      <c r="E9" s="41">
         <f>D9+1</f>
-        <v>44470</v>
+        <v>45200</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="14"/>
@@ -2729,12 +2763,12 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
@@ -2799,11 +2833,11 @@
     </row>
     <row r="10" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="11"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -2886,18 +2920,18 @@
     </row>
     <row r="11" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
-      <c r="B11" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="50">
-        <v>44474</v>
-      </c>
-      <c r="E11" s="50">
+      <c r="B11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="47">
+        <v>45211</v>
+      </c>
+      <c r="E11" s="47">
         <f>D11+2</f>
-        <v>44476</v>
+        <v>45213</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="14"/>
@@ -2915,18 +2949,18 @@
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="27"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
       <c r="AH11" s="27"/>
       <c r="AI11" s="14"/>
       <c r="AJ11" s="14"/>
@@ -2980,18 +3014,18 @@
     </row>
     <row r="12" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
-      <c r="B12" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="50">
-        <v>44474</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="B12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="47">
+        <v>45213</v>
+      </c>
+      <c r="E12" s="47">
         <f>D12+3</f>
-        <v>44477</v>
+        <v>45216</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="14"/>
@@ -3009,10 +3043,10 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
       <c r="AB12" s="14"/>
@@ -3020,10 +3054,10 @@
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
       <c r="AF12" s="14"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
       <c r="AM12" s="14"/>
@@ -3074,18 +3108,18 @@
     </row>
     <row r="13" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
-      <c r="B13" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="50">
-        <v>44480</v>
-      </c>
-      <c r="E13" s="50">
-        <f>D13+2</f>
-        <v>44482</v>
+      <c r="B13" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="47">
+        <v>45217</v>
+      </c>
+      <c r="E13" s="47">
+        <f>D13+3</f>
+        <v>45220</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="14"/>
@@ -3109,19 +3143,19 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
       <c r="AG13" s="27"/>
       <c r="AH13" s="27"/>
       <c r="AI13" s="14"/>
       <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="27"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
       <c r="AO13" s="27"/>
       <c r="AP13" s="14"/>
       <c r="AQ13" s="14"/>
@@ -3168,18 +3202,18 @@
     </row>
     <row r="14" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
-      <c r="B14" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="50">
-        <v>44480</v>
-      </c>
-      <c r="E14" s="50">
-        <f>D14+3</f>
-        <v>44483</v>
+      <c r="B14" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="47">
+        <v>45211</v>
+      </c>
+      <c r="E14" s="47">
+        <f>D14+2</f>
+        <v>45213</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="14"/>
@@ -3203,12 +3237,12 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="27"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="78"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="14"/>
       <c r="AJ14" s="14"/>
@@ -3262,18 +3296,18 @@
     </row>
     <row r="15" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
-      <c r="B15" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="50">
-        <v>44475</v>
-      </c>
-      <c r="E15" s="50">
-        <f>D15+2</f>
-        <v>44477</v>
+      <c r="B15" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="47">
+        <v>45216</v>
+      </c>
+      <c r="E15" s="47">
+        <f>D15+1</f>
+        <v>45217</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="14"/>
@@ -3292,9 +3326,9 @@
       <c r="T15" s="27"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
       <c r="AB15" s="14"/>
@@ -3304,9 +3338,8 @@
       <c r="AF15" s="14"/>
       <c r="AG15" s="27"/>
       <c r="AH15" s="27"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
       <c r="AL15" s="14"/>
       <c r="AM15" s="14"/>
       <c r="AN15" s="27"/>
@@ -3356,18 +3389,18 @@
     </row>
     <row r="16" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
-      <c r="B16" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="50">
-        <v>44478</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="B16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="47">
+        <v>45217</v>
+      </c>
+      <c r="E16" s="47">
         <f>D16+2</f>
-        <v>44480</v>
+        <v>45219</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="14"/>
@@ -3389,9 +3422,9 @@
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
@@ -3400,9 +3433,9 @@
       <c r="AH16" s="27"/>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
       <c r="AN16" s="27"/>
       <c r="AO16" s="27"/>
       <c r="AP16" s="14"/>
@@ -3450,18 +3483,18 @@
     </row>
     <row r="17" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
-      <c r="B17" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="50">
-        <v>44484</v>
-      </c>
-      <c r="E17" s="50">
-        <f>D17</f>
-        <v>44484</v>
+      <c r="B17" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="47">
+        <v>45215</v>
+      </c>
+      <c r="E17" s="47">
+        <f>D17 + 3</f>
+        <v>45218</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="14"/>
@@ -3489,13 +3522,13 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="30"/>
+      <c r="AF17" s="14"/>
       <c r="AG17" s="27"/>
       <c r="AH17" s="27"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="80"/>
+      <c r="AL17" s="80"/>
       <c r="AM17" s="14"/>
       <c r="AN17" s="27"/>
       <c r="AO17" s="27"/>
@@ -3544,12 +3577,19 @@
     </row>
     <row r="18" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
-      <c r="B18" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="B18" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="47">
+        <v>45213</v>
+      </c>
+      <c r="E18" s="47">
+        <f>D18 + 3</f>
+        <v>45216</v>
+      </c>
       <c r="F18" s="22"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -3576,11 +3616,11 @@
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
       <c r="AM18" s="14"/>
@@ -3631,12 +3671,19 @@
     </row>
     <row r="19" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
-      <c r="B19" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+      <c r="B19" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="47">
+        <v>45221</v>
+      </c>
+      <c r="E19" s="47">
+        <f>D19 + 1</f>
+        <v>45222</v>
+      </c>
       <c r="F19" s="22"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -3663,7 +3710,7 @@
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="30"/>
+      <c r="AF19" s="14"/>
       <c r="AG19" s="27"/>
       <c r="AH19" s="27"/>
       <c r="AI19" s="14"/>
@@ -3672,8 +3719,8 @@
       <c r="AL19" s="14"/>
       <c r="AM19" s="14"/>
       <c r="AN19" s="27"/>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="14"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
       <c r="AQ19" s="14"/>
       <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
@@ -3718,107 +3765,107 @@
     </row>
     <row r="20" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
-      <c r="B20" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="12"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="32"/>
-      <c r="AW20" s="32"/>
-      <c r="AX20" s="32"/>
-      <c r="AY20" s="32"/>
-      <c r="AZ20" s="32"/>
-      <c r="BA20" s="32"/>
-      <c r="BB20" s="32"/>
-      <c r="BC20" s="32"/>
-      <c r="BD20" s="32"/>
-      <c r="BE20" s="32"/>
-      <c r="BF20" s="32"/>
-      <c r="BG20" s="32"/>
-      <c r="BH20" s="32"/>
-      <c r="BI20" s="32"/>
-      <c r="BJ20" s="32"/>
-      <c r="BK20" s="32"/>
-      <c r="BL20" s="32"/>
-      <c r="BM20" s="32"/>
-      <c r="BN20" s="32"/>
-      <c r="BO20" s="32"/>
-      <c r="BP20" s="32"/>
-      <c r="BQ20" s="32"/>
-      <c r="BR20" s="32"/>
-      <c r="BS20" s="32"/>
-      <c r="BT20" s="32"/>
-      <c r="BU20" s="32"/>
-      <c r="BV20" s="32"/>
-      <c r="BW20" s="32"/>
-      <c r="BX20" s="32"/>
-      <c r="BY20" s="32"/>
-      <c r="BZ20" s="32"/>
-      <c r="CA20" s="32"/>
-      <c r="CB20" s="32"/>
-      <c r="CC20" s="32"/>
-      <c r="CD20" s="32"/>
-      <c r="CE20" s="32"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="29"/>
+      <c r="BM20" s="29"/>
+      <c r="BN20" s="29"/>
+      <c r="BO20" s="29"/>
+      <c r="BP20" s="29"/>
+      <c r="BQ20" s="29"/>
+      <c r="BR20" s="29"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
+      <c r="BU20" s="29"/>
+      <c r="BV20" s="29"/>
+      <c r="BW20" s="29"/>
+      <c r="BX20" s="29"/>
+      <c r="BY20" s="29"/>
+      <c r="BZ20" s="29"/>
+      <c r="CA20" s="29"/>
+      <c r="CB20" s="29"/>
+      <c r="CC20" s="29"/>
+      <c r="CD20" s="29"/>
+      <c r="CE20" s="29"/>
     </row>
     <row r="21" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>1</v>
       </c>
-      <c r="B21" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="56">
-        <v>44492</v>
-      </c>
-      <c r="E21" s="56">
-        <f>D21+4</f>
-        <v>44496</v>
+      <c r="B21" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="53">
+        <v>45224</v>
+      </c>
+      <c r="E21" s="53">
+        <f>D21+5</f>
+        <v>45229</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="14"/>
@@ -3854,16 +3901,16 @@
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
       <c r="AM21" s="14"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="14"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
       <c r="AX21" s="14"/>
       <c r="AY21" s="14"/>
       <c r="AZ21" s="14"/>
@@ -3901,18 +3948,18 @@
     </row>
     <row r="22" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
-      <c r="B22" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="56">
-        <v>44489</v>
-      </c>
-      <c r="E22" s="56">
-        <f>D22+3</f>
-        <v>44492</v>
+      <c r="B22" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="53">
+        <v>45230</v>
+      </c>
+      <c r="E22" s="53">
+        <f>D22+1</f>
+        <v>45231</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="14"/>
@@ -3945,10 +3992,10 @@
       <c r="AH22" s="27"/>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="27"/>
       <c r="AO22" s="27"/>
       <c r="AP22" s="14"/>
       <c r="AQ22" s="14"/>
@@ -3958,8 +4005,8 @@
       <c r="AU22" s="27"/>
       <c r="AV22" s="27"/>
       <c r="AW22" s="14"/>
-      <c r="AX22" s="14"/>
-      <c r="AY22" s="14"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="76"/>
       <c r="AZ22" s="14"/>
       <c r="BA22" s="14"/>
       <c r="BB22" s="27"/>
@@ -3995,18 +4042,18 @@
     </row>
     <row r="23" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
-      <c r="B23" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="56">
-        <v>44488</v>
-      </c>
-      <c r="E23" s="56">
-        <f>D23+2</f>
-        <v>44490</v>
+      <c r="B23" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="53">
+        <v>45232</v>
+      </c>
+      <c r="E23" s="53">
+        <f>D23+1</f>
+        <v>45233</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="14"/>
@@ -4038,9 +4085,9 @@
       <c r="AG23" s="27"/>
       <c r="AH23" s="27"/>
       <c r="AI23" s="14"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
       <c r="AM23" s="14"/>
       <c r="AN23" s="27"/>
       <c r="AO23" s="27"/>
@@ -4054,8 +4101,8 @@
       <c r="AW23" s="14"/>
       <c r="AX23" s="14"/>
       <c r="AY23" s="14"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
       <c r="BB23" s="27"/>
       <c r="BC23" s="27"/>
       <c r="BD23" s="14"/>
@@ -4089,18 +4136,18 @@
     </row>
     <row r="24" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="56">
-        <v>44497</v>
-      </c>
-      <c r="E24" s="56">
-        <f>D24+9</f>
-        <v>44506</v>
+      <c r="B24" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="53">
+        <v>45230</v>
+      </c>
+      <c r="E24" s="53">
+        <f>D24+4</f>
+        <v>45234</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="14"/>
@@ -4141,16 +4188,16 @@
       <c r="AP24" s="14"/>
       <c r="AQ24" s="14"/>
       <c r="AR24" s="14"/>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
-      <c r="AZ24" s="29"/>
-      <c r="BA24" s="29"/>
-      <c r="BB24" s="29"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="27"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="82"/>
+      <c r="BA24" s="82"/>
+      <c r="BB24" s="82"/>
       <c r="BC24" s="27"/>
       <c r="BD24" s="14"/>
       <c r="BE24" s="14"/>
@@ -4183,18 +4230,18 @@
     </row>
     <row r="25" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
-      <c r="B25" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="56">
-        <v>44501</v>
-      </c>
-      <c r="E25" s="56">
-        <f>D25+2</f>
-        <v>44503</v>
+      <c r="B25" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="53">
+        <v>45230</v>
+      </c>
+      <c r="E25" s="53">
+        <f>D25+9</f>
+        <v>45239</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="14"/>
@@ -4239,17 +4286,17 @@
       <c r="AT25" s="14"/>
       <c r="AU25" s="27"/>
       <c r="AV25" s="27"/>
-      <c r="AW25" s="29"/>
-      <c r="AX25" s="29"/>
-      <c r="AY25" s="29"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="27"/>
-      <c r="BC25" s="27"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="14"/>
-      <c r="BG25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="77"/>
+      <c r="AZ25" s="77"/>
+      <c r="BA25" s="77"/>
+      <c r="BB25" s="77"/>
+      <c r="BC25" s="77"/>
+      <c r="BD25" s="77"/>
+      <c r="BE25" s="77"/>
+      <c r="BF25" s="77"/>
+      <c r="BG25" s="77"/>
       <c r="BH25" s="14"/>
       <c r="BI25" s="27"/>
       <c r="BJ25" s="27"/>
@@ -4277,18 +4324,18 @@
     </row>
     <row r="26" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
-      <c r="B26" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="56">
-        <v>44494</v>
-      </c>
-      <c r="E26" s="56">
+      <c r="B26" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="53">
+        <v>45234</v>
+      </c>
+      <c r="E26" s="53">
         <f>D26+3</f>
-        <v>44497</v>
+        <v>45237</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="14"/>
@@ -4326,10 +4373,10 @@
       <c r="AM26" s="14"/>
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
       <c r="AT26" s="14"/>
       <c r="AU26" s="27"/>
       <c r="AV26" s="27"/>
@@ -4338,10 +4385,10 @@
       <c r="AY26" s="14"/>
       <c r="AZ26" s="14"/>
       <c r="BA26" s="14"/>
-      <c r="BB26" s="27"/>
-      <c r="BC26" s="27"/>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="14"/>
+      <c r="BB26" s="82"/>
+      <c r="BC26" s="82"/>
+      <c r="BD26" s="82"/>
+      <c r="BE26" s="82"/>
       <c r="BF26" s="14"/>
       <c r="BG26" s="14"/>
       <c r="BH26" s="14"/>
@@ -4371,18 +4418,18 @@
     </row>
     <row r="27" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
-      <c r="B27" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="56">
-        <v>44497</v>
-      </c>
-      <c r="E27" s="56">
-        <f>D27+3</f>
-        <v>44500</v>
+      <c r="B27" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="53">
+        <v>45233</v>
+      </c>
+      <c r="E27" s="53">
+        <f>D27+4</f>
+        <v>45237</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="14"/>
@@ -4423,19 +4470,19 @@
       <c r="AP27" s="14"/>
       <c r="AQ27" s="14"/>
       <c r="AR27" s="14"/>
-      <c r="AS27" s="28"/>
-      <c r="AT27" s="28"/>
-      <c r="AU27" s="28"/>
-      <c r="AV27" s="28"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="27"/>
       <c r="AW27" s="14"/>
       <c r="AX27" s="14"/>
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="27"/>
-      <c r="BC27" s="27"/>
-      <c r="BD27" s="14"/>
-      <c r="BE27" s="14"/>
+      <c r="BA27" s="76"/>
+      <c r="BB27" s="76"/>
+      <c r="BC27" s="76"/>
+      <c r="BD27" s="76"/>
+      <c r="BE27" s="76"/>
       <c r="BF27" s="14"/>
       <c r="BG27" s="14"/>
       <c r="BH27" s="14"/>
@@ -4465,18 +4512,18 @@
     </row>
     <row r="28" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
-      <c r="B28" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="56">
-        <v>44495</v>
-      </c>
-      <c r="E28" s="56">
-        <f>D28+2</f>
-        <v>44497</v>
+      <c r="B28" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="53">
+        <v>45238</v>
+      </c>
+      <c r="E28" s="53">
+        <f>D28+1</f>
+        <v>45239</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="14"/>
@@ -4515,9 +4562,9 @@
       <c r="AN28" s="27"/>
       <c r="AO28" s="27"/>
       <c r="AP28" s="14"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
       <c r="AT28" s="14"/>
       <c r="AU28" s="27"/>
       <c r="AV28" s="27"/>
@@ -4530,8 +4577,8 @@
       <c r="BC28" s="27"/>
       <c r="BD28" s="14"/>
       <c r="BE28" s="14"/>
-      <c r="BF28" s="14"/>
-      <c r="BG28" s="14"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
       <c r="BH28" s="14"/>
       <c r="BI28" s="27"/>
       <c r="BJ28" s="27"/>
@@ -4559,18 +4606,18 @@
     </row>
     <row r="29" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
-      <c r="B29" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="56">
-        <v>44497</v>
-      </c>
-      <c r="E29" s="56">
-        <f>D29+4</f>
-        <v>44501</v>
+      <c r="B29" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="53">
+        <v>45232</v>
+      </c>
+      <c r="E29" s="53">
+        <f>D29+3</f>
+        <v>45235</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="14"/>
@@ -4611,18 +4658,18 @@
       <c r="AP29" s="14"/>
       <c r="AQ29" s="14"/>
       <c r="AR29" s="14"/>
-      <c r="AS29" s="30"/>
-      <c r="AT29" s="30"/>
-      <c r="AU29" s="30"/>
-      <c r="AV29" s="30"/>
-      <c r="AW29" s="30"/>
+      <c r="AS29" s="14"/>
+      <c r="AT29" s="14"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27"/>
+      <c r="AW29" s="14"/>
       <c r="AX29" s="14"/>
       <c r="AY29" s="14"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="14"/>
-      <c r="BB29" s="27"/>
-      <c r="BC29" s="27"/>
-      <c r="BD29" s="14"/>
+      <c r="AZ29" s="78"/>
+      <c r="BA29" s="78"/>
+      <c r="BB29" s="78"/>
+      <c r="BC29" s="78"/>
+      <c r="BD29" s="78"/>
       <c r="BE29" s="14"/>
       <c r="BF29" s="14"/>
       <c r="BG29" s="14"/>
@@ -4653,18 +4700,18 @@
     </row>
     <row r="30" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
-      <c r="B30" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="56">
-        <v>44494</v>
-      </c>
-      <c r="E30" s="56">
-        <f>D30+4</f>
-        <v>44498</v>
+      <c r="B30" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="53">
+        <v>45236</v>
+      </c>
+      <c r="E30" s="53">
+        <f>D30+3</f>
+        <v>45239</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="14"/>
@@ -4702,11 +4749,11 @@
       <c r="AM30" s="14"/>
       <c r="AN30" s="27"/>
       <c r="AO30" s="27"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="30"/>
-      <c r="AR30" s="30"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="30"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
       <c r="AU30" s="27"/>
       <c r="AV30" s="27"/>
       <c r="AW30" s="14"/>
@@ -4716,10 +4763,10 @@
       <c r="BA30" s="14"/>
       <c r="BB30" s="27"/>
       <c r="BC30" s="27"/>
-      <c r="BD30" s="14"/>
-      <c r="BE30" s="14"/>
-      <c r="BF30" s="14"/>
-      <c r="BG30" s="14"/>
+      <c r="BD30" s="78"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="78"/>
       <c r="BH30" s="14"/>
       <c r="BI30" s="27"/>
       <c r="BJ30" s="27"/>
@@ -4747,18 +4794,18 @@
     </row>
     <row r="31" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
-      <c r="B31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="56">
-        <v>44493</v>
-      </c>
-      <c r="E31" s="56">
-        <f>D31+2</f>
-        <v>44495</v>
+      <c r="B31" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="53">
+        <v>45240</v>
+      </c>
+      <c r="E31" s="53">
+        <f>D31+3</f>
+        <v>45243</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="14"/>
@@ -4795,9 +4842,9 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="14"/>
       <c r="AN31" s="27"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="30"/>
-      <c r="AQ31" s="30"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
       <c r="AT31" s="14"/>
@@ -4814,10 +4861,10 @@
       <c r="BE31" s="14"/>
       <c r="BF31" s="14"/>
       <c r="BG31" s="14"/>
-      <c r="BH31" s="14"/>
-      <c r="BI31" s="27"/>
-      <c r="BJ31" s="27"/>
-      <c r="BK31" s="14"/>
+      <c r="BH31" s="82"/>
+      <c r="BI31" s="82"/>
+      <c r="BJ31" s="82"/>
+      <c r="BK31" s="82"/>
       <c r="BL31" s="14"/>
       <c r="BM31" s="14"/>
       <c r="BN31" s="14"/>
@@ -4841,18 +4888,18 @@
     </row>
     <row r="32" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
-      <c r="B32" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="56">
-        <v>44502</v>
-      </c>
-      <c r="E32" s="56">
-        <f>D32+3</f>
-        <v>44505</v>
+      <c r="B32" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="53">
+        <v>45224</v>
+      </c>
+      <c r="E32" s="53">
+        <f>D32+6</f>
+        <v>45230</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="14"/>
@@ -4892,16 +4939,16 @@
       <c r="AO32" s="27"/>
       <c r="AP32" s="14"/>
       <c r="AQ32" s="14"/>
-      <c r="AR32" s="14"/>
-      <c r="AS32" s="14"/>
-      <c r="AT32" s="14"/>
-      <c r="AU32" s="27"/>
-      <c r="AV32" s="27"/>
-      <c r="AW32" s="14"/>
-      <c r="AX32" s="29"/>
-      <c r="AY32" s="29"/>
-      <c r="AZ32" s="29"/>
-      <c r="BA32" s="29"/>
+      <c r="AR32" s="80"/>
+      <c r="AS32" s="80"/>
+      <c r="AT32" s="80"/>
+      <c r="AU32" s="80"/>
+      <c r="AV32" s="80"/>
+      <c r="AW32" s="80"/>
+      <c r="AX32" s="80"/>
+      <c r="AY32" s="14"/>
+      <c r="AZ32" s="14"/>
+      <c r="BA32" s="14"/>
       <c r="BB32" s="27"/>
       <c r="BC32" s="27"/>
       <c r="BD32" s="14"/>
@@ -4935,18 +4982,18 @@
     </row>
     <row r="33" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
-      <c r="B33" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="56">
-        <v>44501</v>
-      </c>
-      <c r="E33" s="56">
-        <f>D33+4</f>
-        <v>44505</v>
+      <c r="B33" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="53">
+        <v>45224</v>
+      </c>
+      <c r="E33" s="53">
+        <f>D33+5</f>
+        <v>45229</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="14"/>
@@ -4986,16 +5033,16 @@
       <c r="AO33" s="27"/>
       <c r="AP33" s="14"/>
       <c r="AQ33" s="14"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="27"/>
-      <c r="AV33" s="27"/>
-      <c r="AW33" s="29"/>
-      <c r="AX33" s="29"/>
-      <c r="AY33" s="29"/>
-      <c r="AZ33" s="29"/>
-      <c r="BA33" s="29"/>
+      <c r="AR33" s="79"/>
+      <c r="AS33" s="79"/>
+      <c r="AT33" s="79"/>
+      <c r="AU33" s="79"/>
+      <c r="AV33" s="79"/>
+      <c r="AW33" s="79"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="14"/>
       <c r="BB33" s="27"/>
       <c r="BC33" s="27"/>
       <c r="BD33" s="14"/>
@@ -5029,18 +5076,18 @@
     </row>
     <row r="34" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
-      <c r="B34" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="56">
-        <v>44500</v>
-      </c>
-      <c r="E34" s="56">
+      <c r="B34" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="53">
+        <v>45232</v>
+      </c>
+      <c r="E34" s="53">
         <f>D34+2</f>
-        <v>44502</v>
+        <v>45234</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="14"/>
@@ -5084,13 +5131,13 @@
       <c r="AS34" s="14"/>
       <c r="AT34" s="14"/>
       <c r="AU34" s="27"/>
-      <c r="AV34" s="28"/>
-      <c r="AW34" s="28"/>
-      <c r="AX34" s="28"/>
+      <c r="AV34" s="27"/>
+      <c r="AW34" s="14"/>
+      <c r="AX34" s="14"/>
       <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="27"/>
+      <c r="AZ34" s="80"/>
+      <c r="BA34" s="80"/>
+      <c r="BB34" s="80"/>
       <c r="BC34" s="27"/>
       <c r="BD34" s="14"/>
       <c r="BE34" s="14"/>
@@ -5123,18 +5170,18 @@
     </row>
     <row r="35" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
-      <c r="B35" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="56">
-        <v>44502</v>
-      </c>
-      <c r="E35" s="56">
-        <f>D35+3</f>
-        <v>44505</v>
+      <c r="B35" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="53">
+        <v>45236</v>
+      </c>
+      <c r="E35" s="53">
+        <f>D35+4</f>
+        <v>45240</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="14"/>
@@ -5180,17 +5227,17 @@
       <c r="AU35" s="27"/>
       <c r="AV35" s="27"/>
       <c r="AW35" s="14"/>
-      <c r="AX35" s="28"/>
-      <c r="AY35" s="28"/>
-      <c r="AZ35" s="28"/>
-      <c r="BA35" s="28"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="14"/>
       <c r="BB35" s="27"/>
       <c r="BC35" s="27"/>
-      <c r="BD35" s="14"/>
-      <c r="BE35" s="14"/>
-      <c r="BF35" s="14"/>
-      <c r="BG35" s="14"/>
-      <c r="BH35" s="14"/>
+      <c r="BD35" s="80"/>
+      <c r="BE35" s="80"/>
+      <c r="BF35" s="80"/>
+      <c r="BG35" s="80"/>
+      <c r="BH35" s="80"/>
       <c r="BI35" s="27"/>
       <c r="BJ35" s="27"/>
       <c r="BK35" s="14"/>
@@ -5217,18 +5264,18 @@
     </row>
     <row r="36" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
-      <c r="B36" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="56">
-        <v>44502</v>
-      </c>
-      <c r="E36" s="56">
-        <f>D36+4</f>
-        <v>44506</v>
+      <c r="B36" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="53">
+        <v>45231</v>
+      </c>
+      <c r="E36" s="53">
+        <f>D36+3</f>
+        <v>45234</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="14"/>
@@ -5274,11 +5321,11 @@
       <c r="AU36" s="27"/>
       <c r="AV36" s="27"/>
       <c r="AW36" s="14"/>
-      <c r="AX36" s="28"/>
-      <c r="AY36" s="28"/>
-      <c r="AZ36" s="28"/>
-      <c r="BA36" s="28"/>
-      <c r="BB36" s="28"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="79"/>
+      <c r="AZ36" s="79"/>
+      <c r="BA36" s="79"/>
+      <c r="BB36" s="79"/>
       <c r="BC36" s="27"/>
       <c r="BD36" s="14"/>
       <c r="BE36" s="14"/>
@@ -5311,18 +5358,18 @@
     </row>
     <row r="37" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
-      <c r="B37" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="56">
-        <v>44505</v>
-      </c>
-      <c r="E37" s="56">
+      <c r="B37" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="53">
+        <v>45234</v>
+      </c>
+      <c r="E37" s="53">
         <f>D37+2</f>
-        <v>44507</v>
+        <v>45236</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="14"/>
@@ -5371,10 +5418,10 @@
       <c r="AX37" s="14"/>
       <c r="AY37" s="14"/>
       <c r="AZ37" s="14"/>
-      <c r="BA37" s="30"/>
-      <c r="BB37" s="30"/>
-      <c r="BC37" s="30"/>
-      <c r="BD37" s="14"/>
+      <c r="BA37" s="14"/>
+      <c r="BB37" s="80"/>
+      <c r="BC37" s="80"/>
+      <c r="BD37" s="80"/>
       <c r="BE37" s="14"/>
       <c r="BF37" s="14"/>
       <c r="BG37" s="14"/>
@@ -5405,18 +5452,18 @@
     </row>
     <row r="38" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
-      <c r="B38" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="55" t="s">
+      <c r="B38" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="56">
-        <v>44501</v>
-      </c>
-      <c r="E38" s="56">
+      <c r="D38" s="53">
+        <v>45237</v>
+      </c>
+      <c r="E38" s="53">
         <f>D38+6</f>
-        <v>44507</v>
+        <v>45243</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="14"/>
@@ -5461,21 +5508,21 @@
       <c r="AT38" s="14"/>
       <c r="AU38" s="27"/>
       <c r="AV38" s="27"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BC38" s="31"/>
+      <c r="AW38" s="14"/>
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="14"/>
+      <c r="AZ38" s="14"/>
+      <c r="BA38" s="14"/>
+      <c r="BB38" s="27"/>
+      <c r="BC38" s="27"/>
       <c r="BD38" s="14"/>
-      <c r="BE38" s="14"/>
-      <c r="BF38" s="14"/>
-      <c r="BG38" s="14"/>
-      <c r="BH38" s="14"/>
-      <c r="BI38" s="27"/>
-      <c r="BJ38" s="27"/>
-      <c r="BK38" s="14"/>
+      <c r="BE38" s="83"/>
+      <c r="BF38" s="83"/>
+      <c r="BG38" s="83"/>
+      <c r="BH38" s="83"/>
+      <c r="BI38" s="83"/>
+      <c r="BJ38" s="83"/>
+      <c r="BK38" s="83"/>
       <c r="BL38" s="14"/>
       <c r="BM38" s="14"/>
       <c r="BN38" s="14"/>
@@ -5499,18 +5546,18 @@
     </row>
     <row r="39" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
-      <c r="B39" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="56">
-        <v>44507</v>
-      </c>
-      <c r="E39" s="56">
-        <f>D39+0</f>
-        <v>44507</v>
+      <c r="B39" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="53">
+        <v>45242</v>
+      </c>
+      <c r="E39" s="53">
+        <f>D39+2</f>
+        <v>45244</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="14"/>
@@ -5561,16 +5608,16 @@
       <c r="AZ39" s="14"/>
       <c r="BA39" s="14"/>
       <c r="BB39" s="27"/>
-      <c r="BC39" s="30"/>
+      <c r="BC39" s="27"/>
       <c r="BD39" s="14"/>
       <c r="BE39" s="14"/>
       <c r="BF39" s="14"/>
       <c r="BG39" s="14"/>
       <c r="BH39" s="14"/>
       <c r="BI39" s="27"/>
-      <c r="BJ39" s="27"/>
-      <c r="BK39" s="14"/>
-      <c r="BL39" s="14"/>
+      <c r="BJ39" s="76"/>
+      <c r="BK39" s="76"/>
+      <c r="BL39" s="76"/>
       <c r="BM39" s="14"/>
       <c r="BN39" s="14"/>
       <c r="BO39" s="14"/>
@@ -5593,11 +5640,11 @@
     </row>
     <row r="40" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="13"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
@@ -5680,18 +5727,18 @@
     </row>
     <row r="41" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
-      <c r="B41" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="62">
-        <v>44515</v>
-      </c>
-      <c r="E41" s="62">
-        <f>D41+4</f>
-        <v>44519</v>
+      <c r="B41" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="59">
+        <v>45246</v>
+      </c>
+      <c r="E41" s="59">
+        <f>D41+5</f>
+        <v>45251</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="14"/>
@@ -5750,15 +5797,15 @@
       <c r="BH41" s="14"/>
       <c r="BI41" s="27"/>
       <c r="BJ41" s="27"/>
-      <c r="BK41" s="36"/>
-      <c r="BL41" s="36"/>
-      <c r="BM41" s="36"/>
-      <c r="BN41" s="36"/>
-      <c r="BO41" s="36"/>
-      <c r="BP41" s="27"/>
-      <c r="BQ41" s="27"/>
-      <c r="BR41" s="14"/>
-      <c r="BS41" s="14"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="14"/>
+      <c r="BM41" s="14"/>
+      <c r="BN41" s="79"/>
+      <c r="BO41" s="79"/>
+      <c r="BP41" s="79"/>
+      <c r="BQ41" s="79"/>
+      <c r="BR41" s="79"/>
+      <c r="BS41" s="79"/>
       <c r="BT41" s="14"/>
       <c r="BU41" s="14"/>
       <c r="BV41" s="14"/>
@@ -5774,18 +5821,18 @@
     </row>
     <row r="42" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
-      <c r="B42" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="62">
-        <v>44515</v>
-      </c>
-      <c r="E42" s="62">
-        <f t="shared" ref="E42:E43" si="23">D42+4</f>
-        <v>44519</v>
+      <c r="B42" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="59">
+        <v>45246</v>
+      </c>
+      <c r="E42" s="59">
+        <f>D42+5</f>
+        <v>45251</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="14"/>
@@ -5844,15 +5891,15 @@
       <c r="BH42" s="14"/>
       <c r="BI42" s="27"/>
       <c r="BJ42" s="27"/>
-      <c r="BK42" s="38"/>
-      <c r="BL42" s="38"/>
-      <c r="BM42" s="38"/>
-      <c r="BN42" s="38"/>
-      <c r="BO42" s="38"/>
-      <c r="BP42" s="27"/>
-      <c r="BQ42" s="27"/>
-      <c r="BR42" s="14"/>
-      <c r="BS42" s="14"/>
+      <c r="BK42" s="14"/>
+      <c r="BL42" s="14"/>
+      <c r="BM42" s="14"/>
+      <c r="BN42" s="80"/>
+      <c r="BO42" s="80"/>
+      <c r="BP42" s="80"/>
+      <c r="BQ42" s="80"/>
+      <c r="BR42" s="80"/>
+      <c r="BS42" s="80"/>
       <c r="BT42" s="14"/>
       <c r="BU42" s="14"/>
       <c r="BV42" s="14"/>
@@ -5868,18 +5915,18 @@
     </row>
     <row r="43" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17"/>
-      <c r="B43" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="62">
-        <v>44515</v>
-      </c>
-      <c r="E43" s="62">
-        <f t="shared" si="23"/>
-        <v>44519</v>
+      <c r="B43" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="59">
+        <v>45248</v>
+      </c>
+      <c r="E43" s="59">
+        <f t="shared" ref="E42:E43" si="23">D43+4</f>
+        <v>45252</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="14"/>
@@ -5938,16 +5985,16 @@
       <c r="BH43" s="14"/>
       <c r="BI43" s="27"/>
       <c r="BJ43" s="27"/>
-      <c r="BK43" s="37"/>
-      <c r="BL43" s="37"/>
-      <c r="BM43" s="37"/>
-      <c r="BN43" s="37"/>
-      <c r="BO43" s="37"/>
-      <c r="BP43" s="27"/>
-      <c r="BQ43" s="27"/>
-      <c r="BR43" s="14"/>
-      <c r="BS43" s="14"/>
-      <c r="BT43" s="14"/>
+      <c r="BK43" s="14"/>
+      <c r="BL43" s="14"/>
+      <c r="BM43" s="14"/>
+      <c r="BN43" s="14"/>
+      <c r="BO43" s="14"/>
+      <c r="BP43" s="77"/>
+      <c r="BQ43" s="77"/>
+      <c r="BR43" s="77"/>
+      <c r="BS43" s="77"/>
+      <c r="BT43" s="77"/>
       <c r="BU43" s="14"/>
       <c r="BV43" s="14"/>
       <c r="BW43" s="27"/>
@@ -5962,17 +6009,17 @@
     </row>
     <row r="44" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
-      <c r="B44" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="62">
-        <v>44522</v>
-      </c>
-      <c r="E44" s="62">
-        <v>44522</v>
+      <c r="B44" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="59">
+        <v>45249</v>
+      </c>
+      <c r="E44" s="59">
+        <v>45253</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="14"/>
@@ -6037,11 +6084,11 @@
       <c r="BN44" s="14"/>
       <c r="BO44" s="14"/>
       <c r="BP44" s="27"/>
-      <c r="BQ44" s="27"/>
-      <c r="BR44" s="36"/>
-      <c r="BS44" s="14"/>
-      <c r="BT44" s="14"/>
-      <c r="BU44" s="14"/>
+      <c r="BQ44" s="75"/>
+      <c r="BR44" s="75"/>
+      <c r="BS44" s="75"/>
+      <c r="BT44" s="75"/>
+      <c r="BU44" s="75"/>
       <c r="BV44" s="14"/>
       <c r="BW44" s="27"/>
       <c r="BX44" s="27"/>
@@ -6055,17 +6102,17 @@
     </row>
     <row r="45" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
-      <c r="B45" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="62">
-        <v>44522</v>
-      </c>
-      <c r="E45" s="62">
-        <v>44522</v>
+      <c r="B45" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="59">
+        <v>45253</v>
+      </c>
+      <c r="E45" s="59">
+        <v>45257</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="14"/>
@@ -6131,14 +6178,14 @@
       <c r="BO45" s="14"/>
       <c r="BP45" s="27"/>
       <c r="BQ45" s="27"/>
-      <c r="BR45" s="37"/>
+      <c r="BR45" s="14"/>
       <c r="BS45" s="14"/>
       <c r="BT45" s="14"/>
-      <c r="BU45" s="14"/>
-      <c r="BV45" s="14"/>
-      <c r="BW45" s="27"/>
-      <c r="BX45" s="27"/>
-      <c r="BY45" s="27"/>
+      <c r="BU45" s="78"/>
+      <c r="BV45" s="78"/>
+      <c r="BW45" s="78"/>
+      <c r="BX45" s="78"/>
+      <c r="BY45" s="78"/>
       <c r="BZ45" s="14"/>
       <c r="CA45" s="14"/>
       <c r="CB45" s="14"/>
@@ -6148,17 +6195,17 @@
     </row>
     <row r="46" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
-      <c r="B46" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="62">
-        <v>44523</v>
-      </c>
-      <c r="E46" s="62">
-        <v>44523</v>
+      <c r="B46" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="59">
+        <v>45255</v>
+      </c>
+      <c r="E46" s="59">
+        <v>45257</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="14"/>
@@ -6225,13 +6272,13 @@
       <c r="BP46" s="27"/>
       <c r="BQ46" s="27"/>
       <c r="BR46" s="14"/>
-      <c r="BS46" s="36"/>
+      <c r="BS46" s="14"/>
       <c r="BT46" s="14"/>
       <c r="BU46" s="14"/>
       <c r="BV46" s="14"/>
-      <c r="BW46" s="27"/>
-      <c r="BX46" s="27"/>
-      <c r="BY46" s="27"/>
+      <c r="BW46" s="78"/>
+      <c r="BX46" s="78"/>
+      <c r="BY46" s="78"/>
       <c r="BZ46" s="14"/>
       <c r="CA46" s="14"/>
       <c r="CB46" s="14"/>
@@ -6241,17 +6288,17 @@
     </row>
     <row r="47" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17"/>
-      <c r="B47" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="62">
-        <v>44525</v>
-      </c>
-      <c r="E47" s="62">
-        <v>44525</v>
+      <c r="B47" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="59">
+        <v>45248</v>
+      </c>
+      <c r="E47" s="59">
+        <v>45252</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="14"/>
@@ -6315,12 +6362,12 @@
       <c r="BM47" s="14"/>
       <c r="BN47" s="14"/>
       <c r="BO47" s="14"/>
-      <c r="BP47" s="27"/>
-      <c r="BQ47" s="27"/>
-      <c r="BR47" s="14"/>
-      <c r="BS47" s="14"/>
-      <c r="BT47" s="14"/>
-      <c r="BU47" s="37"/>
+      <c r="BP47" s="76"/>
+      <c r="BQ47" s="76"/>
+      <c r="BR47" s="76"/>
+      <c r="BS47" s="76"/>
+      <c r="BT47" s="76"/>
+      <c r="BU47" s="14"/>
       <c r="BV47" s="14"/>
       <c r="BW47" s="27"/>
       <c r="BX47" s="27"/>
@@ -6334,17 +6381,17 @@
     </row>
     <row r="48" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
-      <c r="B48" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="62">
-        <v>44524</v>
-      </c>
-      <c r="E48" s="62">
-        <v>44524</v>
+      <c r="B48" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="59">
+        <v>45249</v>
+      </c>
+      <c r="E48" s="59">
+        <v>45252</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="14"/>
@@ -6409,10 +6456,10 @@
       <c r="BN48" s="14"/>
       <c r="BO48" s="14"/>
       <c r="BP48" s="27"/>
-      <c r="BQ48" s="27"/>
-      <c r="BR48" s="14"/>
-      <c r="BS48" s="14"/>
-      <c r="BT48" s="36"/>
+      <c r="BQ48" s="78"/>
+      <c r="BR48" s="78"/>
+      <c r="BS48" s="78"/>
+      <c r="BT48" s="78"/>
       <c r="BU48" s="14"/>
       <c r="BV48" s="14"/>
       <c r="BW48" s="27"/>
@@ -6427,17 +6474,17 @@
     </row>
     <row r="49" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17"/>
-      <c r="B49" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="62">
-        <v>44524</v>
-      </c>
-      <c r="E49" s="62">
-        <v>44524</v>
+      <c r="B49" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="59">
+        <v>45255</v>
+      </c>
+      <c r="E49" s="59">
+        <v>45256</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="14"/>
@@ -6505,11 +6552,11 @@
       <c r="BQ49" s="27"/>
       <c r="BR49" s="14"/>
       <c r="BS49" s="14"/>
-      <c r="BT49" s="37"/>
+      <c r="BT49" s="14"/>
       <c r="BU49" s="14"/>
       <c r="BV49" s="14"/>
-      <c r="BW49" s="27"/>
-      <c r="BX49" s="27"/>
+      <c r="BW49" s="82"/>
+      <c r="BX49" s="82"/>
       <c r="BY49" s="27"/>
       <c r="BZ49" s="14"/>
       <c r="CA49" s="14"/>
@@ -6520,17 +6567,17 @@
     </row>
     <row r="50" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
-      <c r="B50" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="62">
-        <v>44523</v>
-      </c>
-      <c r="E50" s="62">
-        <v>44523</v>
+      <c r="B50" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="59">
+        <v>45255</v>
+      </c>
+      <c r="E50" s="59">
+        <v>45257</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="14"/>
@@ -6597,13 +6644,13 @@
       <c r="BP50" s="27"/>
       <c r="BQ50" s="27"/>
       <c r="BR50" s="14"/>
-      <c r="BS50" s="38"/>
+      <c r="BS50" s="14"/>
       <c r="BT50" s="14"/>
       <c r="BU50" s="14"/>
       <c r="BV50" s="14"/>
-      <c r="BW50" s="27"/>
-      <c r="BX50" s="27"/>
-      <c r="BY50" s="27"/>
+      <c r="BW50" s="77"/>
+      <c r="BX50" s="77"/>
+      <c r="BY50" s="77"/>
       <c r="BZ50" s="14"/>
       <c r="CA50" s="14"/>
       <c r="CB50" s="14"/>
@@ -6613,17 +6660,17 @@
     </row>
     <row r="51" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17"/>
-      <c r="B51" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="62">
-        <v>44524</v>
-      </c>
-      <c r="E51" s="62">
-        <v>44524</v>
+      <c r="B51" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="59">
+        <v>45253</v>
+      </c>
+      <c r="E51" s="59">
+        <v>45254</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="14"/>
@@ -6691,9 +6738,9 @@
       <c r="BQ51" s="27"/>
       <c r="BR51" s="14"/>
       <c r="BS51" s="14"/>
-      <c r="BT51" s="38"/>
-      <c r="BU51" s="14"/>
-      <c r="BV51" s="14"/>
+      <c r="BT51" s="14"/>
+      <c r="BU51" s="79"/>
+      <c r="BV51" s="79"/>
       <c r="BW51" s="27"/>
       <c r="BX51" s="27"/>
       <c r="BY51" s="27"/>
@@ -6706,17 +6753,17 @@
     </row>
     <row r="52" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
-      <c r="B52" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="62">
-        <v>44525</v>
-      </c>
-      <c r="E52" s="62">
-        <v>44525</v>
+      <c r="B52" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="59">
+        <v>45253</v>
+      </c>
+      <c r="E52" s="59">
+        <v>45254</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="14"/>
@@ -6785,8 +6832,8 @@
       <c r="BR52" s="14"/>
       <c r="BS52" s="14"/>
       <c r="BT52" s="14"/>
-      <c r="BU52" s="38"/>
-      <c r="BV52" s="14"/>
+      <c r="BU52" s="80"/>
+      <c r="BV52" s="80"/>
       <c r="BW52" s="27"/>
       <c r="BX52" s="27"/>
       <c r="BY52" s="27"/>
@@ -6799,272 +6846,290 @@
     </row>
     <row r="53" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17"/>
-      <c r="B53" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
+      <c r="B53" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="59">
+        <v>45259</v>
+      </c>
+      <c r="E53" s="59">
+        <v>45260</v>
+      </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="77"/>
-      <c r="R53" s="77"/>
-      <c r="S53" s="78"/>
-      <c r="T53" s="78"/>
-      <c r="U53" s="77"/>
-      <c r="V53" s="77"/>
-      <c r="W53" s="77"/>
-      <c r="X53" s="77"/>
-      <c r="Y53" s="77"/>
-      <c r="Z53" s="78"/>
-      <c r="AA53" s="78"/>
-      <c r="AB53" s="77"/>
-      <c r="AC53" s="77"/>
-      <c r="AD53" s="77"/>
-      <c r="AE53" s="77"/>
-      <c r="AF53" s="77"/>
-      <c r="AG53" s="78"/>
-      <c r="AH53" s="78"/>
-      <c r="AI53" s="77"/>
-      <c r="AJ53" s="77"/>
-      <c r="AK53" s="77"/>
-      <c r="AL53" s="77"/>
-      <c r="AM53" s="77"/>
-      <c r="AN53" s="78"/>
-      <c r="AO53" s="78"/>
-      <c r="AP53" s="77"/>
-      <c r="AQ53" s="77"/>
-      <c r="AR53" s="77"/>
-      <c r="AS53" s="77"/>
-      <c r="AT53" s="77"/>
-      <c r="AU53" s="78"/>
-      <c r="AV53" s="78"/>
-      <c r="AW53" s="77"/>
-      <c r="AX53" s="77"/>
-      <c r="AY53" s="77"/>
-      <c r="AZ53" s="77"/>
-      <c r="BA53" s="77"/>
-      <c r="BB53" s="78"/>
-      <c r="BC53" s="78"/>
-      <c r="BD53" s="77"/>
-      <c r="BE53" s="77"/>
-      <c r="BF53" s="77"/>
-      <c r="BG53" s="77"/>
-      <c r="BH53" s="77"/>
-      <c r="BI53" s="78"/>
-      <c r="BJ53" s="78"/>
-      <c r="BK53" s="77"/>
-      <c r="BL53" s="77"/>
-      <c r="BM53" s="77"/>
-      <c r="BN53" s="77"/>
-      <c r="BO53" s="77"/>
-      <c r="BP53" s="78"/>
-      <c r="BQ53" s="78"/>
-      <c r="BR53" s="77"/>
-      <c r="BS53" s="77"/>
-      <c r="BT53" s="77"/>
-      <c r="BU53" s="38"/>
-      <c r="BV53" s="77"/>
-      <c r="BW53" s="78"/>
-      <c r="BX53" s="78"/>
-      <c r="BY53" s="78"/>
-      <c r="BZ53" s="77"/>
-      <c r="CA53" s="77"/>
-      <c r="CB53" s="77"/>
-      <c r="CC53" s="77"/>
-      <c r="CD53" s="78"/>
-      <c r="CE53" s="78"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="27"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="14"/>
+      <c r="AM53" s="14"/>
+      <c r="AN53" s="27"/>
+      <c r="AO53" s="27"/>
+      <c r="AP53" s="14"/>
+      <c r="AQ53" s="14"/>
+      <c r="AR53" s="14"/>
+      <c r="AS53" s="14"/>
+      <c r="AT53" s="14"/>
+      <c r="AU53" s="27"/>
+      <c r="AV53" s="27"/>
+      <c r="AW53" s="14"/>
+      <c r="AX53" s="14"/>
+      <c r="AY53" s="14"/>
+      <c r="AZ53" s="14"/>
+      <c r="BA53" s="14"/>
+      <c r="BB53" s="27"/>
+      <c r="BC53" s="27"/>
+      <c r="BD53" s="14"/>
+      <c r="BE53" s="14"/>
+      <c r="BF53" s="14"/>
+      <c r="BG53" s="14"/>
+      <c r="BH53" s="14"/>
+      <c r="BI53" s="27"/>
+      <c r="BJ53" s="27"/>
+      <c r="BK53" s="14"/>
+      <c r="BL53" s="14"/>
+      <c r="BM53" s="14"/>
+      <c r="BN53" s="14"/>
+      <c r="BO53" s="14"/>
+      <c r="BP53" s="27"/>
+      <c r="BQ53" s="27"/>
+      <c r="BR53" s="14"/>
+      <c r="BS53" s="14"/>
+      <c r="BT53" s="14"/>
+      <c r="BU53" s="14"/>
+      <c r="BV53" s="14"/>
+      <c r="BW53" s="27"/>
+      <c r="BX53" s="27"/>
+      <c r="BY53" s="27"/>
+      <c r="BZ53" s="14"/>
+      <c r="CA53" s="78"/>
+      <c r="CB53" s="78"/>
+      <c r="CC53" s="14"/>
+      <c r="CD53" s="27"/>
+      <c r="CE53" s="27"/>
     </row>
     <row r="54" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
-      <c r="B54" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
+      <c r="B54" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="59">
+        <v>45258</v>
+      </c>
+      <c r="E54" s="59">
+        <v>45259</v>
+      </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="78"/>
-      <c r="T54" s="78"/>
-      <c r="U54" s="77"/>
-      <c r="V54" s="77"/>
-      <c r="W54" s="77"/>
-      <c r="X54" s="77"/>
-      <c r="Y54" s="77"/>
-      <c r="Z54" s="78"/>
-      <c r="AA54" s="78"/>
-      <c r="AB54" s="77"/>
-      <c r="AC54" s="77"/>
-      <c r="AD54" s="77"/>
-      <c r="AE54" s="77"/>
-      <c r="AF54" s="77"/>
-      <c r="AG54" s="78"/>
-      <c r="AH54" s="78"/>
-      <c r="AI54" s="77"/>
-      <c r="AJ54" s="77"/>
-      <c r="AK54" s="77"/>
-      <c r="AL54" s="77"/>
-      <c r="AM54" s="77"/>
-      <c r="AN54" s="78"/>
-      <c r="AO54" s="78"/>
-      <c r="AP54" s="77"/>
-      <c r="AQ54" s="77"/>
-      <c r="AR54" s="77"/>
-      <c r="AS54" s="77"/>
-      <c r="AT54" s="77"/>
-      <c r="AU54" s="78"/>
-      <c r="AV54" s="78"/>
-      <c r="AW54" s="77"/>
-      <c r="AX54" s="77"/>
-      <c r="AY54" s="77"/>
-      <c r="AZ54" s="77"/>
-      <c r="BA54" s="77"/>
-      <c r="BB54" s="78"/>
-      <c r="BC54" s="78"/>
-      <c r="BD54" s="77"/>
-      <c r="BE54" s="77"/>
-      <c r="BF54" s="77"/>
-      <c r="BG54" s="77"/>
-      <c r="BH54" s="77"/>
-      <c r="BI54" s="78"/>
-      <c r="BJ54" s="78"/>
-      <c r="BK54" s="77"/>
-      <c r="BL54" s="77"/>
-      <c r="BM54" s="77"/>
-      <c r="BN54" s="77"/>
-      <c r="BO54" s="77"/>
-      <c r="BP54" s="78"/>
-      <c r="BQ54" s="78"/>
-      <c r="BR54" s="77"/>
-      <c r="BS54" s="77"/>
-      <c r="BT54" s="77"/>
-      <c r="BU54" s="38"/>
-      <c r="BV54" s="77"/>
-      <c r="BW54" s="78"/>
-      <c r="BX54" s="78"/>
-      <c r="BY54" s="78"/>
-      <c r="BZ54" s="77"/>
-      <c r="CA54" s="77"/>
-      <c r="CB54" s="77"/>
-      <c r="CC54" s="77"/>
-      <c r="CD54" s="78"/>
-      <c r="CE54" s="78"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="27"/>
+      <c r="AH54" s="27"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="14"/>
+      <c r="AM54" s="14"/>
+      <c r="AN54" s="27"/>
+      <c r="AO54" s="27"/>
+      <c r="AP54" s="14"/>
+      <c r="AQ54" s="14"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="14"/>
+      <c r="AT54" s="14"/>
+      <c r="AU54" s="27"/>
+      <c r="AV54" s="27"/>
+      <c r="AW54" s="14"/>
+      <c r="AX54" s="14"/>
+      <c r="AY54" s="14"/>
+      <c r="AZ54" s="14"/>
+      <c r="BA54" s="14"/>
+      <c r="BB54" s="27"/>
+      <c r="BC54" s="27"/>
+      <c r="BD54" s="14"/>
+      <c r="BE54" s="14"/>
+      <c r="BF54" s="14"/>
+      <c r="BG54" s="14"/>
+      <c r="BH54" s="14"/>
+      <c r="BI54" s="27"/>
+      <c r="BJ54" s="27"/>
+      <c r="BK54" s="14"/>
+      <c r="BL54" s="14"/>
+      <c r="BM54" s="14"/>
+      <c r="BN54" s="14"/>
+      <c r="BO54" s="14"/>
+      <c r="BP54" s="27"/>
+      <c r="BQ54" s="27"/>
+      <c r="BR54" s="14"/>
+      <c r="BS54" s="14"/>
+      <c r="BT54" s="14"/>
+      <c r="BU54" s="14"/>
+      <c r="BV54" s="14"/>
+      <c r="BW54" s="27"/>
+      <c r="BX54" s="27"/>
+      <c r="BY54" s="27"/>
+      <c r="BZ54" s="80"/>
+      <c r="CA54" s="80"/>
+      <c r="CB54" s="14"/>
+      <c r="CC54" s="14"/>
+      <c r="CD54" s="27"/>
+      <c r="CE54" s="27"/>
     </row>
     <row r="55" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17"/>
-      <c r="B55" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
+      <c r="B55" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="59">
+        <v>45261</v>
+      </c>
+      <c r="E55" s="59">
+        <v>45261</v>
+      </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="78"/>
-      <c r="T55" s="78"/>
-      <c r="U55" s="77"/>
-      <c r="V55" s="77"/>
-      <c r="W55" s="77"/>
-      <c r="X55" s="77"/>
-      <c r="Y55" s="77"/>
-      <c r="Z55" s="78"/>
-      <c r="AA55" s="78"/>
-      <c r="AB55" s="77"/>
-      <c r="AC55" s="77"/>
-      <c r="AD55" s="77"/>
-      <c r="AE55" s="77"/>
-      <c r="AF55" s="77"/>
-      <c r="AG55" s="78"/>
-      <c r="AH55" s="78"/>
-      <c r="AI55" s="77"/>
-      <c r="AJ55" s="77"/>
-      <c r="AK55" s="77"/>
-      <c r="AL55" s="77"/>
-      <c r="AM55" s="77"/>
-      <c r="AN55" s="78"/>
-      <c r="AO55" s="78"/>
-      <c r="AP55" s="77"/>
-      <c r="AQ55" s="77"/>
-      <c r="AR55" s="77"/>
-      <c r="AS55" s="77"/>
-      <c r="AT55" s="77"/>
-      <c r="AU55" s="78"/>
-      <c r="AV55" s="78"/>
-      <c r="AW55" s="77"/>
-      <c r="AX55" s="77"/>
-      <c r="AY55" s="77"/>
-      <c r="AZ55" s="77"/>
-      <c r="BA55" s="77"/>
-      <c r="BB55" s="78"/>
-      <c r="BC55" s="78"/>
-      <c r="BD55" s="77"/>
-      <c r="BE55" s="77"/>
-      <c r="BF55" s="77"/>
-      <c r="BG55" s="77"/>
-      <c r="BH55" s="77"/>
-      <c r="BI55" s="78"/>
-      <c r="BJ55" s="78"/>
-      <c r="BK55" s="77"/>
-      <c r="BL55" s="77"/>
-      <c r="BM55" s="77"/>
-      <c r="BN55" s="77"/>
-      <c r="BO55" s="77"/>
-      <c r="BP55" s="78"/>
-      <c r="BQ55" s="78"/>
-      <c r="BR55" s="77"/>
-      <c r="BS55" s="77"/>
-      <c r="BT55" s="77"/>
-      <c r="BU55" s="38"/>
-      <c r="BV55" s="77"/>
-      <c r="BW55" s="78"/>
-      <c r="BX55" s="78"/>
-      <c r="BY55" s="78"/>
-      <c r="BZ55" s="77"/>
-      <c r="CA55" s="77"/>
-      <c r="CB55" s="77"/>
-      <c r="CC55" s="77"/>
-      <c r="CD55" s="78"/>
-      <c r="CE55" s="78"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="27"/>
+      <c r="AH55" s="27"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="14"/>
+      <c r="AM55" s="14"/>
+      <c r="AN55" s="27"/>
+      <c r="AO55" s="27"/>
+      <c r="AP55" s="14"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="14"/>
+      <c r="AS55" s="14"/>
+      <c r="AT55" s="14"/>
+      <c r="AU55" s="27"/>
+      <c r="AV55" s="27"/>
+      <c r="AW55" s="14"/>
+      <c r="AX55" s="14"/>
+      <c r="AY55" s="14"/>
+      <c r="AZ55" s="14"/>
+      <c r="BA55" s="14"/>
+      <c r="BB55" s="27"/>
+      <c r="BC55" s="27"/>
+      <c r="BD55" s="14"/>
+      <c r="BE55" s="14"/>
+      <c r="BF55" s="14"/>
+      <c r="BG55" s="14"/>
+      <c r="BH55" s="14"/>
+      <c r="BI55" s="27"/>
+      <c r="BJ55" s="27"/>
+      <c r="BK55" s="14"/>
+      <c r="BL55" s="14"/>
+      <c r="BM55" s="14"/>
+      <c r="BN55" s="14"/>
+      <c r="BO55" s="14"/>
+      <c r="BP55" s="27"/>
+      <c r="BQ55" s="27"/>
+      <c r="BR55" s="14"/>
+      <c r="BS55" s="14"/>
+      <c r="BT55" s="14"/>
+      <c r="BU55" s="14"/>
+      <c r="BV55" s="14"/>
+      <c r="BW55" s="27"/>
+      <c r="BX55" s="27"/>
+      <c r="BY55" s="27"/>
+      <c r="BZ55" s="14"/>
+      <c r="CA55" s="14"/>
+      <c r="CB55" s="14"/>
+      <c r="CC55" s="76"/>
+      <c r="CD55" s="27"/>
+      <c r="CE55" s="27"/>
     </row>
     <row r="56" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17"/>
-      <c r="B56" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
+      <c r="B56" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
       <c r="E56" s="23"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -7154,11 +7219,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -7168,250 +7228,18 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 G7:R7 U7:Y9 AB7:AF9 AI7:AM9 AP7:AT9 AW7:BA9 BD7:BH9 BK7:BO9 BR7:BV9 BY7:CC9 G9:P9 G8:L8 Q8:R8 Z20:AA20 AU40:AV40 AN40:AO40 U13:Y14 AB11:AF12 AI11:AM19 AP11:AT19 AW11:BA19 BD11:BH19 BK11:BO19 BR11:BV19 Z40:AA40 Z21:Z39 AB21:AF39 AI21:AM21 AP22:AT23 AW21:BA23 BD21:BH39 BK21:BO39 BR21:BV39 AG7:AH40 BI7:BJ40 BP7:BQ40 BW7:BX40 Z41:Z55 AP41:AT55 AW41:BA55 AB41:AM55 BD52:BT55 M40:M56 AU56:AV56 CD7:CE56 AN56:AO56 S7:T56 Z56:AA56 AG56:AH56 BI56:BJ56 BP56:BQ56 BW56:BX56 Y11 U11:U12 AB15:AF15 AE13:AF13 AF14 U16:Y19 U15:V15 AB17:AE19 AC16:AF16 AI24:AM39 AI23 AM23 AI22:AJ22 AS21:AT21 AW26:BA28 AP25:AT25 AP24:AR24 AZ25:BA25 AP27:AR27 AT26 AP29:AR29 AW30:BA31 AX29:BA29 AP28 AT28 AW39:BA39 AY34:BA34 AW32 AR31:AT31 AW35:AW36 AP32:AT39 AW37:AZ37 BD41:BJ43 BP41:BX43 BD44:BQ45 BS44:BX45 BD46:BR46 BT46:BX46 BD47:BT47 BV47:BX47 BD48:BS49 BU48:BX49 BD50:BR50 BT50:BX50 BD51:BS51 BU51:BX51 BV52:BX55">
-    <cfRule type="expression" dxfId="53" priority="143">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 G7:R7 U7:Y9 AB7:AF9 AI7:AM9 AP7:AT9 AW7:BA9 BD7:BH9 BK7:BO9 BR7:BV9 BY7:CC9 G9:P9 G8:L8 Q8:R8 Z20:AA20 AU40:AV40 AN40:AO40 U13:Y14 AB11:AF12 AI11:AM19 AP11:AT19 AW11:BA19 BD11:BH19 BK11:BO19 BR11:BV19 Z40:AA40 Z21:Z39 AB21:AF39 AI21:AM21 AP22:AT23 AW21:BA23 BD21:BH39 BK21:BO39 BR21:BV39 AG7:AH40 BI7:BJ40 BP7:BQ40 BW7:BX40 Z41:Z55 AP41:AT55 AW41:BA55 AB41:AM55 BD52:BT55 M40:M56 AU56:AV56 CD7:CE56 AN56:AO56 S7:T56 Z56:AA56 AG56:AH56 BI56:BJ56 BP56:BQ56 BW56:BX56 Y11 U11:U12 AB15:AF15 AE13:AF13 AF14 U16:Y19 U15:V15 AB17:AE19 AC16:AF16 AI24:AM39 AI23 AM23 AI22:AJ22 AS21:AT21 AW26:BA28 AP25:AT25 AP24:AR24 AZ25:BA25 AP27:AR27 AT26 AP29:AR29 AW30:BA31 AX29:BA29 AP28 AT28 AW39:BA39 AY34:BA34 AW32 AR31:AT31 AW35:AW36 AP32:AT39 AW37:AZ37 BD41:BJ43 BP41:BX43 BD44:BQ45 BS44:BX45 BD46:BR46 BT46:BX46 BD47:BT47 BV47:BX47 BD48:BS49 BU48:BX49 BD50:BR50 BT50:BX50 BD51:BS51 BU51:BX51 BV52:BX55">
-    <cfRule type="expression" dxfId="52" priority="137">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="138" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="50" priority="145">
-      <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="49" priority="148">
-      <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="149" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:R10 BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10">
-    <cfRule type="expression" dxfId="47" priority="94">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:R10 BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10">
-    <cfRule type="expression" dxfId="46" priority="92">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="93" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BY11:CC19 G11:R19">
-    <cfRule type="expression" dxfId="44" priority="88">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BY11:CC19 G11:R19">
-    <cfRule type="expression" dxfId="43" priority="86">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="87" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:R20 BY20:CC20 U20:Y20 AB20:AF20 AI20:AM20 AP20:AT20 AW20:BA20 BD20:BH20 BK20:BO20 BR20:BV20">
-    <cfRule type="expression" dxfId="41" priority="82">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:R20 BY20:CC20 U20:Y20 AB20:AF20 AI20:AM20 AP20:AT20 AW20:BA20 BD20:BH20 BK20:BO20 BR20:BV20">
-    <cfRule type="expression" dxfId="40" priority="80">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="81" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:K40 BY40:CC40 U40:Y40 N40:R40 AB40:AF40 AI40:AM40 AP40:AT40 AW40:BA40 BD40:BH40 BK40:BO40 BR40:BV40">
-    <cfRule type="expression" dxfId="38" priority="76">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:K40 BY40:CC40 U40:Y40 N40:R40 AB40:AF40 AI40:AM40 AP40:AT40 AW40:BA40 BD40:BH40 BK40:BO40 BR40:BV40">
-    <cfRule type="expression" dxfId="37" priority="74">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="75" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:R39 BY21:CC39 U21:Y39 L40:L56">
-    <cfRule type="expression" dxfId="35" priority="70">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:R39 BY21:CC39 U21:Y39 L40:L56">
-    <cfRule type="expression" dxfId="34" priority="68">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="69" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41:K55 BZ41:CC55 U41:Y55 N41:R55">
-    <cfRule type="expression" dxfId="32" priority="64">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41:K55 BZ41:CC55 U41:Y55 N41:R55">
-    <cfRule type="expression" dxfId="31" priority="62">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="63" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AA15 Z17:AA19">
-    <cfRule type="expression" dxfId="29" priority="52">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AA15 Z17:AA19">
-    <cfRule type="expression" dxfId="28" priority="50">
-      <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="51" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AO20 AN23:AO30 AO22 AN32:AO39 AN31">
-    <cfRule type="expression" dxfId="26" priority="46">
-      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AO20 AN23:AO30 AO22 AN32:AO39 AN31">
-    <cfRule type="expression" dxfId="25" priority="44">
-      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="45" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU7:AV23 AU25:AV26 AU30:AV33 AU28:AV28 AU34 AU35:AV39">
-    <cfRule type="expression" dxfId="23" priority="43">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU7:AV23 AU25:AV26 AU30:AV33 AU28:AV28 AU34 AU35:AV39">
-    <cfRule type="expression" dxfId="22" priority="41">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="42" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB7:BC23 BB25:BC35 BC24 BB40:BC55 BC36 BB39">
-    <cfRule type="expression" dxfId="20" priority="40">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB7:BC23 BB25:BC35 BC24 BB40:BC55 BC36 BB39">
-    <cfRule type="expression" dxfId="19" priority="38">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="39" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA21:AA39">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA21:AA39">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AO55">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AO55">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU41:AV55">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU41:AV55">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA41:AA55 BY41:BY55">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA41:AA55 BY41:BY55">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56:K56 BY56:CC56 U56:Y56 N56:R56 AB56:AF56 AI56:AM56 AP56:AT56 AW56:BA56 BD56:BH56 BK56:BO56 BR56:BV56">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56:K56 BY56:CC56 U56:Y56 N56:R56 AB56:AF56 AI56:AM56 AP56:AT56 AW56:BA56 BD56:BH56 BK56:BO56 BR56:BV56">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB56:BC56">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB56:BC56">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="E13 E23" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>